--- a/_4.python/import_module/pyinstaller/ims_qc_database/template/template.xlsx
+++ b/_4.python/import_module/pyinstaller/ims_qc_database/template/template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\vcs\_4.python\_example\ims_qc_database\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\vcs\_4.python\import_module\pyinstaller\ims_qc_database\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="1月402" sheetId="9" r:id="rId1"/>
@@ -131,828 +131,6 @@
         <charset val="136"/>
       </rPr>
       <t xml:space="preserve"> : </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>區域</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Wingdings 2"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>£</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>402除菌區</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Wingdings 2"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>¢</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>403包裝區</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Wingdings 2"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>£</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>404組裝區</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Wingdings 2"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>£</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>405燒機測試區</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Wingdings 2"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>£</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>406電信測試區</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>區域</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Wingdings 2"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>£</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>402除菌區</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Wingdings 2"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>£</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>403包裝區</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Wingdings 2"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>¢</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>404組裝區</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Wingdings 2"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>£</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>405燒機測試區</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Wingdings 2"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>£</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>406電信測試區</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>區域</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Wingdings 2"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>£</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>402除菌區</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Wingdings 2"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>£</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>403包裝區</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Wingdings 2"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>£</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>404組裝區</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Wingdings 2"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>¢</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>405燒機測試區</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Wingdings 2"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>£</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>406電信測試區</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>區域</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Wingdings 2"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>¢</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>407原料除菌區</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Wingdings 2"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>£</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>408清洗區</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Wingdings 2"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>區域</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Wingdings 2"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>¢</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>402除菌區</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Wingdings 2"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>£</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>403包裝區</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Wingdings 2"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>£</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>404組裝區</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Wingdings 2"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>£</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>405燒機測試區</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Wingdings 2"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>£</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>406電信測試區</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>區域</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Wingdings 2"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>£</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>407原料除菌區</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Wingdings 2"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>¢</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>408清洗區</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Wingdings 2"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>區域</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>409無塵室</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1166,6 +344,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>備註欄 |</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>區域</t>
     </r>
@@ -1182,12 +364,244 @@
     <r>
       <rPr>
         <b/>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>409無塵室</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>區域</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>408清洗區</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="16"/>
         <rFont val="Wingdings 2"/>
         <family val="1"/>
         <charset val="2"/>
       </rPr>
-      <t>£</t>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>區域</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>407原料除菌區</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="Wingdings 2"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>區域</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>406電信測試區</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>區域</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>405燒機測試區</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>區域</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>404組裝區</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>區域</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>403包裝區</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>區域</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>：</t>
     </r>
     <r>
       <rPr>
@@ -1207,122 +621,8 @@
         <family val="1"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">  </t>
+      <t/>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Wingdings 2"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>£</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>403包裝區</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Wingdings 2"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>£</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>404組裝區</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Wingdings 2"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>£</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>405燒機測試區</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <rFont val="Wingdings 2"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>¢</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>406電信測試區</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>備註欄 |</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3310,7 +2610,7 @@
   <dimension ref="A1:AG19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3430,7 +2730,7 @@
     </row>
     <row r="4" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -3467,7 +2767,7 @@
     </row>
     <row r="5" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -3645,7 +2945,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -3682,7 +2982,7 @@
     <row r="9" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="22" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -3795,7 +3095,7 @@
     <row r="12" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="22" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -3871,7 +3171,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
@@ -3908,7 +3208,7 @@
     <row r="15" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="22" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -4111,7 +3411,7 @@
   <dimension ref="A1:AG19"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8:AD16"/>
+      <selection activeCell="A5" sqref="A5:AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4231,7 +3531,7 @@
     </row>
     <row r="4" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -4268,7 +3568,7 @@
     </row>
     <row r="5" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -4909,7 +4209,7 @@
   <dimension ref="A1:AG19"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A5" sqref="A5:AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5029,7 +4329,7 @@
     </row>
     <row r="4" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -5066,7 +4366,7 @@
     </row>
     <row r="5" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -5707,7 +5007,7 @@
   <dimension ref="A1:AG19"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8:AD16"/>
+      <selection activeCell="A5" sqref="A5:AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5827,7 +5127,7 @@
     </row>
     <row r="4" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -5864,7 +5164,7 @@
     </row>
     <row r="5" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -6512,7 +5812,7 @@
   <dimension ref="A1:AG19"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8:AD16"/>
+      <selection activeCell="A5" sqref="A5:AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6632,7 +5932,7 @@
     </row>
     <row r="4" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -6669,7 +5969,7 @@
     </row>
     <row r="5" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -7317,7 +6617,7 @@
   <dimension ref="A1:AG19"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:AG17"/>
+      <selection activeCell="A5" sqref="A5:AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7437,7 +6737,7 @@
     </row>
     <row r="4" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -7474,7 +6774,7 @@
     </row>
     <row r="5" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -7689,7 +6989,7 @@
     <row r="9" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="22" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -7802,7 +7102,7 @@
     <row r="12" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="22" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -7915,7 +7215,7 @@
     <row r="15" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="22" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -7988,7 +7288,7 @@
     </row>
     <row r="17" spans="1:33" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
@@ -8120,7 +7420,7 @@
   <dimension ref="A1:AG19"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:AG17"/>
+      <selection activeCell="A5" sqref="A5:AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8240,7 +7540,7 @@
     </row>
     <row r="4" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -8277,7 +7577,7 @@
     </row>
     <row r="5" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -8492,7 +7792,7 @@
     <row r="9" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="22" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -8605,7 +7905,7 @@
     <row r="12" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="22" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -8718,7 +8018,7 @@
     <row r="15" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="22" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -8791,7 +8091,7 @@
     </row>
     <row r="17" spans="1:33" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
@@ -8923,7 +8223,7 @@
   <dimension ref="A1:AG19"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="AJ13" sqref="AJ13"/>
+      <selection activeCell="A5" sqref="A5:AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9043,7 +8343,7 @@
     </row>
     <row r="4" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -9080,7 +8380,7 @@
     </row>
     <row r="5" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -9258,7 +8558,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -9295,7 +8595,7 @@
     <row r="9" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="22" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -9371,7 +8671,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -9408,7 +8708,7 @@
     <row r="12" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="22" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -9484,7 +8784,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
@@ -9521,7 +8821,7 @@
     <row r="15" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="22" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>

--- a/_4.python/import_module/pyinstaller/ims_qc_database/template/template.xlsx
+++ b/_4.python/import_module/pyinstaller/ims_qc_database/template/template.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="41">
   <si>
     <t>溫溼度</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -133,26 +133,6 @@
       <t xml:space="preserve"> : </t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">溼度(%)    </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">溼度(%)    </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">溼度(%)    </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">溼度(%)    </t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">溼度(%)    </t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -623,6 +603,41 @@
       </rPr>
       <t/>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>溼度(%)    
+&lt;60%</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>溼度(%)    
+&lt;60%</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>溼度(%)    
+&lt;60%</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>溼度(%)    
+&lt;60%</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>溼度(%)    
+&lt;60%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>溼度(%)    
+&lt;60%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>溼度(%)    
+&lt;60%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2609,7 +2624,7 @@
   </sheetPr>
   <dimension ref="A1:AG19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -2730,7 +2745,7 @@
     </row>
     <row r="4" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -2767,7 +2782,7 @@
     </row>
     <row r="5" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -2945,7 +2960,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -2982,7 +2997,7 @@
     <row r="9" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="22" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -3095,7 +3110,7 @@
     <row r="12" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="22" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -3171,7 +3186,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
@@ -3208,7 +3223,7 @@
     <row r="15" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="22" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -3531,7 +3546,7 @@
     </row>
     <row r="4" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -3568,7 +3583,7 @@
     </row>
     <row r="5" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -4329,7 +4344,7 @@
     </row>
     <row r="4" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -4366,7 +4381,7 @@
     </row>
     <row r="5" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -5007,7 +5022,7 @@
   <dimension ref="A1:AG19"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:AG5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5127,7 +5142,7 @@
     </row>
     <row r="4" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -5164,7 +5179,7 @@
     </row>
     <row r="5" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -5379,7 +5394,7 @@
     <row r="9" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="22" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -5932,7 +5947,7 @@
     </row>
     <row r="4" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -5969,7 +5984,7 @@
     </row>
     <row r="5" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -6617,7 +6632,7 @@
   <dimension ref="A1:AG19"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:AG5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6737,7 +6752,7 @@
     </row>
     <row r="4" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -6774,7 +6789,7 @@
     </row>
     <row r="5" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -6989,7 +7004,7 @@
     <row r="9" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="22" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -7102,7 +7117,7 @@
     <row r="12" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="22" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -7215,7 +7230,7 @@
     <row r="15" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="22" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -7288,7 +7303,7 @@
     </row>
     <row r="17" spans="1:33" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
@@ -7420,7 +7435,7 @@
   <dimension ref="A1:AG19"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:AG5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7540,7 +7555,7 @@
     </row>
     <row r="4" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -7577,7 +7592,7 @@
     </row>
     <row r="5" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -7792,7 +7807,7 @@
     <row r="9" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="22" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -7905,7 +7920,7 @@
     <row r="12" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="22" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -8018,7 +8033,7 @@
     <row r="15" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="22" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -8091,7 +8106,7 @@
     </row>
     <row r="17" spans="1:33" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
@@ -8223,7 +8238,7 @@
   <dimension ref="A1:AG19"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:AG5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8343,7 +8358,7 @@
     </row>
     <row r="4" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -8380,7 +8395,7 @@
     </row>
     <row r="5" spans="1:33" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
@@ -8558,7 +8573,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -8595,7 +8610,7 @@
     <row r="9" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="22" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -8671,7 +8686,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -8708,7 +8723,7 @@
     <row r="12" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="22" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -8784,7 +8799,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
@@ -8821,7 +8836,7 @@
     <row r="15" spans="1:33" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="22" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
